--- a/Firewall Template_v1_5D-Hungary.xlsx
+++ b/Firewall Template_v1_5D-Hungary.xlsx
@@ -2,26 +2,27 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myl-my.sharepoint.com/personal/jijeshkarukaparambil_ramesh_viatris_com/Documents/Documents/Port Open sheets_V1/Port open sent to review/MFG not ready/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m676096\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{9AD0F10D-92F8-41B3-A730-93B7D5A28D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30F7255A-10BB-48E3-9549-7D33AF2340EB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42BADB2-4A75-4520-A50E-BB2AAC274F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{DAAE2BF8-E3D4-4ED9-806F-0ADEB78A96DE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{DAAE2BF8-E3D4-4ED9-806F-0ADEB78A96DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="Windows_Hungary" sheetId="1" r:id="rId2"/>
+    <sheet name="5D Infra FW ports" sheetId="1" r:id="rId2"/>
+    <sheet name="AD Ports" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Windows_Hungary!$A$1:$J$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'5D Infra FW ports'!$A$1:$J$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId3"/>
+    <pivotCache cacheId="2" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="134">
   <si>
     <t>S NO</t>
   </si>
@@ -175,22 +176,6 @@
     <t>Policy update</t>
   </si>
   <si>
-    <t>ec2-52-4-62-128.compute-1.amazonaws.com
-ec2-54-244-50-128.us-west-2.compute.amazonaws.com</t>
-  </si>
-  <si>
-    <t>52.4.62.128
-54.244.50.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">443/TCP
-17234/TCP
-</t>
-  </si>
-  <si>
-    <t>Servers Redcloak communication</t>
-  </si>
-  <si>
     <t>w0bsqlmon001</t>
   </si>
   <si>
@@ -278,9 +263,6 @@
   </si>
   <si>
     <t>Viatris-AV-Master-Servers-Policy</t>
-  </si>
-  <si>
-    <t>Viatris-REDCLOAK-Communication-Policy</t>
   </si>
   <si>
     <t>Viatris-MSSQL-MGMT-Servers-Policy</t>
@@ -448,14 +430,166 @@
     <t>172.18.86.19</t>
   </si>
   <si>
-    <t>W5DDC001</t>
+    <t>W5DVADC001.MYL.COM</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Application Name</t>
+  </si>
+  <si>
+    <t>Source Description</t>
+  </si>
+  <si>
+    <t>Source IPs/Network</t>
+  </si>
+  <si>
+    <t>Destination Description</t>
+  </si>
+  <si>
+    <t>Destination IPs/Network</t>
+  </si>
+  <si>
+    <t>Ports/Protocols</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Firewall Device</t>
+  </si>
+  <si>
+    <t>Requesting Mylan Business User</t>
+  </si>
+  <si>
+    <t>Requesting Mylan IT Contact</t>
+  </si>
+  <si>
+    <t>Domain controller communication</t>
+  </si>
+  <si>
+    <t>W5DVADC002</t>
+  </si>
+  <si>
+    <t>10.6.176.141</t>
+  </si>
+  <si>
+    <t>Bi-Direction &lt;--&gt;</t>
+  </si>
+  <si>
+    <t>W0BVADC001
+W0BVADC002
+W0BVADC003
+WB5DC001
+WB5DC002
+W6OVDC001
+W6OVDC002
+W0BSCRIPTING001
+W0BVSCRIPTP001</t>
+  </si>
+  <si>
+    <t>172.20.24.19
+172.20.31.102
+172.20.31.11
+10.250.31.41
+10.250.31.23
+10.232.45.21
+10.232.45.22
+172.20.24.194
+172.17.37.4</t>
+  </si>
+  <si>
+    <t>TCP and UDP 389
+TCP 636
+TCP 3268
+TCP 3269
+TCP and UDP 88
+TCP and UDP 53
+TCP and UDP 445
+TCP 135
+UDP 123
+TCP and UDP 464
+UDP 138
+UDP 137
+TCP 139                              TCP 49152-65535  
+ ICMP-Ping</t>
+  </si>
+  <si>
+    <t>Communication required with local, regional and FSMO roles holder domain controllers for Active Directory based authentication &amp; autorization and DNS</t>
+  </si>
+  <si>
+    <t>W0BSCRIPTING001
+W0BVSCRIPTP001</t>
+  </si>
+  <si>
+    <t>172.20.24.194
+172.17.37.4</t>
+  </si>
+  <si>
+    <t>Uni-Direction --&gt;</t>
+  </si>
+  <si>
+    <t>W0UVADC001</t>
+  </si>
+  <si>
+    <t>172.16.72.21</t>
+  </si>
+  <si>
+    <t>RDP - 3389</t>
+  </si>
+  <si>
+    <t>This is required for Accessing the AD Server via RDP.</t>
+  </si>
+  <si>
+    <t>Active Directory Web Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WB5SECLOG001
+w0bsec001 
+w0bsecp001 </t>
+  </si>
+  <si>
+    <t>10.250.31.44
+172.20.31.36
+172.20.31.213</t>
+  </si>
+  <si>
+    <t>5985
+9389</t>
+  </si>
+  <si>
+    <t>Active Directory Web Services to forward the logs to Security Server</t>
+  </si>
+  <si>
+    <t>W0BVADDREP001
+WB5VADDREP001
+W6OVADDREP001</t>
+  </si>
+  <si>
+    <t>172.17.37.111
+10.250.133.161
+10.232.45.109</t>
+  </si>
+  <si>
+    <t>3843
+445</t>
+  </si>
+  <si>
+    <t>This is required for Quest Backup Agent for AD Servers</t>
+  </si>
+  <si>
+    <t>N0BVSSHARE009</t>
+  </si>
+  <si>
+    <t>172.20.27.111</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -478,14 +612,52 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Lucida Sans Unicode"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="5"/>
+      <color rgb="FF333333"/>
+      <name val="Lucida Sans Unicode"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -498,8 +670,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -559,18 +737,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -580,12 +771,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -599,6 +784,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -608,16 +796,52 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{0BB87F2E-305C-40B6-A697-4377A6D899A4}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -635,7 +859,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ramesh Palanisamy" refreshedDate="44879.722623842594" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="18" xr:uid="{F4B9664B-E135-4DFF-8A4B-1EE43E84CF6B}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:J19" sheet="Windows_Hungary"/>
+    <worksheetSource ref="A1:J18" sheet="5D Infra FW ports"/>
   </cacheSource>
   <cacheFields count="10">
     <cacheField name="S NO" numFmtId="0">
@@ -904,7 +1128,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C233E323-C7C9-4701-9644-1790F490E756}" name="PivotTable5" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C233E323-C7C9-4701-9644-1790F490E756}" name="PivotTable5" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -1267,55 +1491,55 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B4" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B6" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B7" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B8" s="3">
         <v>18</v>
@@ -1328,835 +1552,1069 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74DD98DC-78D0-4767-A4BA-70B4A3E6DAD3}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="25.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="25.77734375" style="5"/>
+    <col min="1" max="1" width="5.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="25.81640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="203" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="203" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="116" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="195" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="6" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="7" t="s">
+      <c r="F12" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="B13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="F13" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="G14" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="6" t="s">
+    </row>
+    <row r="15" spans="1:10" ht="116" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <v>15</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="7" t="s">
+      <c r="F15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
         <v>16</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="B16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
         <v>17</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="B17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
         <v>18</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="B18" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="12">
         <v>19</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="B19" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="195" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="F19" s="12" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="8" t="s">
+      <c r="G19" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="J19" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="20" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A15" s="18">
-        <v>14</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15" s="19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
-        <v>16</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
-        <v>17</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
-        <v>18</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
-        <v>19</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="J20" s="15" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="16"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="16"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="16"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="16"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="16"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="16"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="16"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="16"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="16"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="16"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="17"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="12"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="14"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="12"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="14"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="12"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="14"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="12"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="14"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="12"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="14"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="12"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="14"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="12"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="14"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="12"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="14"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="12"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="14"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="12"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="14"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="12"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="G20:G31"/>
-    <mergeCell ref="H20:H31"/>
-    <mergeCell ref="I20:I31"/>
-    <mergeCell ref="J20:J31"/>
-    <mergeCell ref="F20:F31"/>
-    <mergeCell ref="A20:A31"/>
-    <mergeCell ref="B20:B31"/>
-    <mergeCell ref="C20:C31"/>
-    <mergeCell ref="D20:D31"/>
-    <mergeCell ref="E20:E31"/>
+    <mergeCell ref="A19:A30"/>
+    <mergeCell ref="B19:B30"/>
+    <mergeCell ref="C19:C30"/>
+    <mergeCell ref="D19:D30"/>
+    <mergeCell ref="E19:E30"/>
+    <mergeCell ref="G19:G30"/>
+    <mergeCell ref="H19:H30"/>
+    <mergeCell ref="I19:I30"/>
+    <mergeCell ref="J19:J30"/>
+    <mergeCell ref="F19:F30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C58D93-8619-4641-9C62-436DBB1C2539}">
+  <dimension ref="A1:L34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4.08984375" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7265625" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.54296875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.81640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.54296875" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.36328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.26953125" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.36328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.6328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="18"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="20"/>
+    </row>
+    <row r="4" spans="1:12" ht="93" x14ac:dyDescent="0.35">
+      <c r="A4" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="L4" s="26" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="273" x14ac:dyDescent="0.35">
+      <c r="A5" s="27">
+        <v>1</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="J5" s="28"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+    </row>
+    <row r="6" spans="1:12" ht="26" x14ac:dyDescent="0.35">
+      <c r="A6" s="27">
+        <v>1</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="J6" s="28"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+    </row>
+    <row r="7" spans="1:12" ht="52" x14ac:dyDescent="0.35">
+      <c r="A7" s="27">
+        <v>2</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="J7" s="28"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+    </row>
+    <row r="8" spans="1:12" ht="78" x14ac:dyDescent="0.35">
+      <c r="A8" s="27">
+        <v>3</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="J8" s="28"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+    </row>
+    <row r="9" spans="1:12" ht="26" x14ac:dyDescent="0.35">
+      <c r="A9" s="27">
+        <v>4</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="H9" s="27">
+        <v>445</v>
+      </c>
+      <c r="I9" s="27"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E10" s="21"/>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E18" s="22"/>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E20" s="21"/>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E24" s="21"/>
+    </row>
+    <row r="26" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E26" s="22"/>
+    </row>
+    <row r="28" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E28" s="21"/>
+    </row>
+    <row r="32" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E32" s="21"/>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E33" s="22"/>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E34" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AD984297C9CB834EB1B65798E66CF3EE" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b4b67a5a0cd448156b575061692e910a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="616bbc5e-4ebb-4ef1-bc81-b9b11a272976" xmlns:ns4="f35e9857-9c33-49fa-985e-ce8dfb72e088" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0b3c8164e034b865e00e781a1d32b5ec" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2402,33 +2860,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{264EB6A4-2C5A-4EDD-BA2A-65CE4EDE1963}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="f35e9857-9c33-49fa-985e-ce8dfb72e088"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="616bbc5e-4ebb-4ef1-bc81-b9b11a272976"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DB88969-09DE-48FC-884A-7B62077F1540}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C44EA25-7E23-4FFF-8C8C-69A697D8707B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2446,4 +2896,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DB88969-09DE-48FC-884A-7B62077F1540}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{264EB6A4-2C5A-4EDD-BA2A-65CE4EDE1963}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="f35e9857-9c33-49fa-985e-ce8dfb72e088"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="616bbc5e-4ebb-4ef1-bc81-b9b11a272976"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>